--- a/Clinicas/Estabelecimento7949.xlsx
+++ b/Clinicas/Estabelecimento7949.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardomotta/Library/Mobile Documents/com~apple~CloudDocs/MedSimples/COG/Histórico Clínicas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen/Desktop/MedSimples/Controle Odonto/Programa/Clinicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EAC763-1BE7-C94D-BD54-B7B52BE15BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD4326-99B5-D74F-B869-676EDA58044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
   <si>
     <t>CNPJ</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>0.555555555555</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -719,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -960,16 +963,16 @@
       <c r="A28" s="2">
         <v>45931</v>
       </c>
-      <c r="B28" s="3">
-        <v>1000000000000</v>
+      <c r="B28" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45962</v>
       </c>
-      <c r="B29" s="3">
-        <v>1000000000000</v>
+      <c r="B29" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
